--- a/src/Excel/entregable4/FondeoDPF.xlsx
+++ b/src/Excel/entregable4/FondeoDPF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9198C15-2DBA-47C1-A96D-237CA32A196A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC698D59-341B-4A32-A415-89337730EA3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>usuario</t>
   </si>
@@ -45,9 +45,6 @@
     <t>plazo</t>
   </si>
   <si>
-    <t>SCISNEROSSPAS</t>
-  </si>
-  <si>
     <t>123456</t>
   </si>
   <si>
@@ -72,13 +69,22 @@
     <t>12M</t>
   </si>
   <si>
-    <t>AAACT231141DHV7H8</t>
-  </si>
-  <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>24 abr. 2023, 17:35:52</t>
+    <t>ebenito</t>
+  </si>
+  <si>
+    <t>cuentaFondeo</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1010819338</t>
+  </si>
+  <si>
+    <t>26 may. 2023, 11:42:09</t>
   </si>
 </sst>
 </file>
@@ -411,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -423,11 +429,12 @@
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -446,43 +453,49 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable4/FondeoDPF.xlsx
+++ b/src/Excel/entregable4/FondeoDPF.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC698D59-341B-4A32-A415-89337730EA3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EF6FAC-7D27-4CB0-BD92-5278BA1944C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>usuario</t>
   </si>
@@ -63,9 +63,6 @@
     <t>1287257</t>
   </si>
   <si>
-    <t>7000</t>
-  </si>
-  <si>
     <t>12M</t>
   </si>
   <si>
@@ -81,16 +78,29 @@
     <t/>
   </si>
   <si>
-    <t>1010819338</t>
-  </si>
-  <si>
-    <t>26 may. 2023, 11:42:09</t>
+    <t>9 ago. 2023, 10:11:39</t>
+  </si>
+  <si>
+    <t>1010830709</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>TT2322175C1F 12:1</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>9 ago. 2023, 12:17:20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,18 +430,18 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.36328125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.26953125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -454,7 +464,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>8</v>
@@ -468,7 +478,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -480,22 +490,22 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
